--- a/output/harmony_sample_5_output.xlsx
+++ b/output/harmony_sample_5_output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="79">
   <si>
     <t>result</t>
   </si>
@@ -74,33 +74,69 @@
     <t>越位</t>
   </si>
   <si>
+    <t>實際使用的和弦級數超出單元範圍</t>
+  </si>
+  <si>
     <t>F4</t>
   </si>
   <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>E-4</t>
+  </si>
+  <si>
+    <t>A-4</t>
+  </si>
+  <si>
     <t>B-4</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
+    <t>C4</t>
+  </si>
+  <si>
     <t>B-3</t>
   </si>
   <si>
+    <t>G3</t>
+  </si>
+  <si>
     <t>A-3</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
+    <t>C3</t>
+  </si>
+  <si>
     <t>B-2</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>V6</t>
   </si>
   <si>
+    <t>vi</t>
+  </si>
+  <si>
+    <t>IV6</t>
+  </si>
+  <si>
     <t>V7</t>
   </si>
   <si>
@@ -113,6 +149,9 @@
     <t>Mixture unavailable</t>
   </si>
   <si>
+    <t>lecture_unavailable_rn</t>
+  </si>
+  <si>
     <t>missing_third_by_chord</t>
   </si>
   <si>
@@ -146,36 +185,18 @@
     <t>third_warning</t>
   </si>
   <si>
-    <t>G4</t>
-  </si>
-  <si>
     <t>C5</t>
   </si>
   <si>
-    <t>A-4</t>
-  </si>
-  <si>
-    <t>E-4</t>
-  </si>
-  <si>
     <t>D5</t>
   </si>
   <si>
     <t>E-5</t>
   </si>
   <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
     <t>E-3</t>
   </si>
   <si>
-    <t>C3</t>
-  </si>
-  <si>
     <t>A-2</t>
   </si>
   <si>
@@ -188,21 +209,12 @@
     <t>D3</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>6</t>
   </si>
   <si>
@@ -212,9 +224,6 @@
     <t>I</t>
   </si>
   <si>
-    <t>vi</t>
-  </si>
-  <si>
     <t>IV</t>
   </si>
   <si>
@@ -234,9 +243,6 @@
   </si>
   <si>
     <t>V65</t>
-  </si>
-  <si>
-    <t>IV6</t>
   </si>
   <si>
     <t>ii6</t>
@@ -603,7 +609,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -661,22 +667,22 @@
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -705,63 +711,175 @@
         <v>14</v>
       </c>
       <c r="C4" s="1">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
         <v>21</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
         <v>25</v>
       </c>
-      <c r="K5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" t="s">
-        <v>28</v>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -769,13 +887,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:24">
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,78 +913,81 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>57</v>
-      </c>
       <c r="G2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I2" t="b">
         <v>0</v>
@@ -892,11 +1013,11 @@
       <c r="P2" t="b">
         <v>0</v>
       </c>
-      <c r="Q2" t="s">
-        <v>76</v>
-      </c>
-      <c r="T2" t="b">
-        <v>0</v>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>78</v>
       </c>
       <c r="U2" t="b">
         <v>0</v>
@@ -907,31 +1028,34 @@
       <c r="W2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="X2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="I3" t="b">
         <v>0</v>
@@ -940,7 +1064,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" t="b">
         <v>0</v>
@@ -957,11 +1081,11 @@
       <c r="P3" t="b">
         <v>0</v>
       </c>
-      <c r="Q3" t="s">
-        <v>76</v>
-      </c>
-      <c r="T3" t="b">
-        <v>0</v>
+      <c r="Q3" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" t="s">
+        <v>78</v>
       </c>
       <c r="U3" t="b">
         <v>0</v>
@@ -972,31 +1096,34 @@
       <c r="W3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -1022,11 +1149,11 @@
       <c r="P4" t="b">
         <v>0</v>
       </c>
-      <c r="Q4" t="s">
-        <v>76</v>
-      </c>
-      <c r="T4" t="b">
-        <v>0</v>
+      <c r="Q4" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" t="s">
+        <v>78</v>
       </c>
       <c r="U4" t="b">
         <v>0</v>
@@ -1037,31 +1164,34 @@
       <c r="W4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I5" t="b">
         <v>0</v>
@@ -1076,22 +1206,22 @@
         <v>0</v>
       </c>
       <c r="M5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5" t="b">
         <v>1</v>
       </c>
-      <c r="N5" t="b">
-        <v>0</v>
-      </c>
       <c r="O5" t="b">
         <v>0</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
       </c>
-      <c r="Q5" t="s">
-        <v>76</v>
-      </c>
-      <c r="S5" t="b">
-        <v>0</v>
+      <c r="Q5" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
+        <v>78</v>
       </c>
       <c r="T5" t="b">
         <v>0</v>
@@ -1105,31 +1235,34 @@
       <c r="W5" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="X5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I6" t="b">
         <v>0</v>
@@ -1144,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="b">
+        <v>0</v>
+      </c>
+      <c r="N6" t="b">
         <v>1</v>
       </c>
-      <c r="N6" t="b">
-        <v>0</v>
-      </c>
       <c r="O6" t="b">
         <v>0</v>
       </c>
       <c r="P6" t="b">
         <v>0</v>
       </c>
-      <c r="Q6" t="s">
-        <v>76</v>
-      </c>
-      <c r="S6" t="b">
-        <v>0</v>
+      <c r="Q6" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" t="s">
+        <v>78</v>
       </c>
       <c r="T6" t="b">
         <v>0</v>
@@ -1173,31 +1306,34 @@
       <c r="W6" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:23">
+      <c r="X6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I7" t="b">
         <v>0</v>
@@ -1223,11 +1359,11 @@
       <c r="P7" t="b">
         <v>0</v>
       </c>
-      <c r="Q7" t="s">
-        <v>76</v>
-      </c>
-      <c r="T7" t="b">
-        <v>0</v>
+      <c r="Q7" t="b">
+        <v>0</v>
+      </c>
+      <c r="R7" t="s">
+        <v>78</v>
       </c>
       <c r="U7" t="b">
         <v>0</v>
@@ -1238,31 +1374,34 @@
       <c r="W7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="I8" t="b">
         <v>0</v>
@@ -1271,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="b">
         <v>0</v>
@@ -1288,11 +1427,11 @@
       <c r="P8" t="b">
         <v>0</v>
       </c>
-      <c r="Q8" t="s">
-        <v>76</v>
-      </c>
-      <c r="T8" t="b">
-        <v>0</v>
+      <c r="Q8" t="b">
+        <v>0</v>
+      </c>
+      <c r="R8" t="s">
+        <v>78</v>
       </c>
       <c r="U8" t="b">
         <v>0</v>
@@ -1303,31 +1442,34 @@
       <c r="W8" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -1353,11 +1495,11 @@
       <c r="P9" t="b">
         <v>0</v>
       </c>
-      <c r="Q9" t="s">
-        <v>76</v>
-      </c>
-      <c r="T9" t="b">
-        <v>0</v>
+      <c r="Q9" t="b">
+        <v>0</v>
+      </c>
+      <c r="R9" t="s">
+        <v>78</v>
       </c>
       <c r="U9" t="b">
         <v>0</v>
@@ -1368,31 +1510,34 @@
       <c r="W9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="X9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
@@ -1418,11 +1563,11 @@
       <c r="P10" t="b">
         <v>0</v>
       </c>
-      <c r="Q10" t="s">
-        <v>76</v>
-      </c>
-      <c r="T10" t="b">
-        <v>0</v>
+      <c r="Q10" t="b">
+        <v>0</v>
+      </c>
+      <c r="R10" t="s">
+        <v>78</v>
       </c>
       <c r="U10" t="b">
         <v>0</v>
@@ -1433,31 +1578,34 @@
       <c r="W10" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -1483,11 +1631,11 @@
       <c r="P11" t="b">
         <v>0</v>
       </c>
-      <c r="Q11" t="s">
-        <v>76</v>
-      </c>
-      <c r="T11" t="b">
-        <v>0</v>
+      <c r="Q11" t="b">
+        <v>0</v>
+      </c>
+      <c r="R11" t="s">
+        <v>78</v>
       </c>
       <c r="U11" t="b">
         <v>0</v>
@@ -1498,31 +1646,34 @@
       <c r="W11" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:23">
+      <c r="X11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I12" t="b">
         <v>0</v>
@@ -1537,22 +1688,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" t="b">
         <v>1</v>
       </c>
-      <c r="N12" t="b">
-        <v>0</v>
-      </c>
       <c r="O12" t="b">
         <v>0</v>
       </c>
       <c r="P12" t="b">
         <v>0</v>
       </c>
-      <c r="Q12" t="s">
-        <v>76</v>
-      </c>
-      <c r="S12" t="b">
-        <v>0</v>
+      <c r="Q12" t="b">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
+        <v>78</v>
       </c>
       <c r="T12" t="b">
         <v>0</v>
@@ -1566,31 +1717,34 @@
       <c r="W12" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:23">
+      <c r="X12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I13" t="b">
         <v>0</v>
@@ -1616,11 +1770,11 @@
       <c r="P13" t="b">
         <v>0</v>
       </c>
-      <c r="Q13" t="s">
-        <v>76</v>
-      </c>
-      <c r="T13" t="b">
-        <v>0</v>
+      <c r="Q13" t="b">
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
+        <v>78</v>
       </c>
       <c r="U13" t="b">
         <v>0</v>
@@ -1631,31 +1785,34 @@
       <c r="W13" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23">
+      <c r="X13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="H14" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -1664,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="b">
         <v>0</v>
@@ -1681,11 +1838,11 @@
       <c r="P14" t="b">
         <v>0</v>
       </c>
-      <c r="Q14" t="s">
-        <v>76</v>
-      </c>
-      <c r="T14" t="b">
-        <v>0</v>
+      <c r="Q14" t="b">
+        <v>0</v>
+      </c>
+      <c r="R14" t="s">
+        <v>78</v>
       </c>
       <c r="U14" t="b">
         <v>0</v>
@@ -1696,31 +1853,34 @@
       <c r="W14" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H15" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -1735,22 +1895,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="b">
         <v>1</v>
       </c>
-      <c r="N15" t="b">
-        <v>0</v>
-      </c>
       <c r="O15" t="b">
         <v>0</v>
       </c>
       <c r="P15" t="b">
         <v>0</v>
       </c>
-      <c r="Q15" t="s">
-        <v>76</v>
-      </c>
-      <c r="S15" t="b">
-        <v>0</v>
+      <c r="Q15" t="b">
+        <v>0</v>
+      </c>
+      <c r="R15" t="s">
+        <v>78</v>
       </c>
       <c r="T15" t="b">
         <v>0</v>
@@ -1764,31 +1924,34 @@
       <c r="W15" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H16" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
@@ -1814,11 +1977,11 @@
       <c r="P16" t="b">
         <v>0</v>
       </c>
-      <c r="Q16" t="s">
-        <v>76</v>
-      </c>
-      <c r="T16" t="b">
-        <v>0</v>
+      <c r="Q16" t="b">
+        <v>0</v>
+      </c>
+      <c r="R16" t="s">
+        <v>78</v>
       </c>
       <c r="U16" t="b">
         <v>0</v>
@@ -1829,31 +1992,34 @@
       <c r="W16" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I17" t="b">
         <v>0</v>
@@ -1879,11 +2045,11 @@
       <c r="P17" t="b">
         <v>0</v>
       </c>
-      <c r="Q17" t="s">
-        <v>76</v>
-      </c>
-      <c r="T17" t="b">
-        <v>0</v>
+      <c r="Q17" t="b">
+        <v>0</v>
+      </c>
+      <c r="R17" t="s">
+        <v>78</v>
       </c>
       <c r="U17" t="b">
         <v>0</v>
@@ -1894,31 +2060,34 @@
       <c r="W17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:23">
+      <c r="X17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="I18" t="b">
         <v>0</v>
@@ -1933,22 +2102,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" t="b">
         <v>1</v>
       </c>
-      <c r="N18" t="b">
-        <v>0</v>
-      </c>
       <c r="O18" t="b">
         <v>0</v>
       </c>
       <c r="P18" t="b">
         <v>0</v>
       </c>
-      <c r="Q18" t="s">
-        <v>76</v>
-      </c>
-      <c r="S18" t="b">
-        <v>0</v>
+      <c r="Q18" t="b">
+        <v>0</v>
+      </c>
+      <c r="R18" t="s">
+        <v>78</v>
       </c>
       <c r="T18" t="b">
         <v>0</v>
@@ -1962,31 +2131,34 @@
       <c r="W18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:23">
+      <c r="X18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H19" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I19" t="b">
         <v>0</v>
@@ -2012,11 +2184,11 @@
       <c r="P19" t="b">
         <v>0</v>
       </c>
-      <c r="Q19" t="s">
-        <v>76</v>
-      </c>
-      <c r="T19" t="b">
-        <v>0</v>
+      <c r="Q19" t="b">
+        <v>0</v>
+      </c>
+      <c r="R19" t="s">
+        <v>78</v>
       </c>
       <c r="U19" t="b">
         <v>0</v>
@@ -2027,31 +2199,34 @@
       <c r="W19" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:23">
+      <c r="X19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
@@ -2077,11 +2252,11 @@
       <c r="P20" t="b">
         <v>0</v>
       </c>
-      <c r="Q20" t="s">
-        <v>76</v>
-      </c>
-      <c r="T20" t="b">
-        <v>0</v>
+      <c r="Q20" t="b">
+        <v>0</v>
+      </c>
+      <c r="R20" t="s">
+        <v>78</v>
       </c>
       <c r="U20" t="b">
         <v>0</v>
@@ -2092,31 +2267,34 @@
       <c r="W20" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:23">
+      <c r="X20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H21" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
@@ -2142,11 +2320,11 @@
       <c r="P21" t="b">
         <v>0</v>
       </c>
-      <c r="Q21" t="s">
-        <v>76</v>
-      </c>
-      <c r="T21" t="b">
-        <v>0</v>
+      <c r="Q21" t="b">
+        <v>0</v>
+      </c>
+      <c r="R21" t="s">
+        <v>78</v>
       </c>
       <c r="U21" t="b">
         <v>0</v>
@@ -2157,31 +2335,34 @@
       <c r="W21" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:23">
+      <c r="X21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G22" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="H22" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I22" t="b">
         <v>1</v>
@@ -2190,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="b">
         <v>0</v>
@@ -2205,48 +2386,51 @@
         <v>0</v>
       </c>
       <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="b">
         <v>1</v>
       </c>
-      <c r="Q22" t="s">
-        <v>76</v>
-      </c>
-      <c r="T22" t="b">
-        <v>0</v>
+      <c r="R22" t="s">
+        <v>78</v>
       </c>
       <c r="U22" t="b">
         <v>0</v>
       </c>
       <c r="V22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:23">
+      <c r="X22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="H23" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
@@ -2264,19 +2448,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="b">
         <v>1</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>76</v>
-      </c>
-      <c r="T23" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="Q23" t="b">
+        <v>0</v>
+      </c>
+      <c r="R23" t="s">
+        <v>78</v>
       </c>
       <c r="U23" t="b">
         <v>0</v>
@@ -2285,33 +2469,36 @@
         <v>0</v>
       </c>
       <c r="W23" t="b">
+        <v>0</v>
+      </c>
+      <c r="X23" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:24">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="G24" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H24" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -2337,11 +2524,11 @@
       <c r="P24" t="b">
         <v>0</v>
       </c>
-      <c r="Q24" t="s">
-        <v>76</v>
-      </c>
-      <c r="T24" t="b">
-        <v>0</v>
+      <c r="Q24" t="b">
+        <v>0</v>
+      </c>
+      <c r="R24" t="s">
+        <v>78</v>
       </c>
       <c r="U24" t="b">
         <v>0</v>
@@ -2350,6 +2537,9 @@
         <v>0</v>
       </c>
       <c r="W24" t="b">
+        <v>0</v>
+      </c>
+      <c r="X24" t="b">
         <v>0</v>
       </c>
     </row>
